--- a/biology/Botanique/Lophostemon_confertus/Lophostemon_confertus.xlsx
+++ b/biology/Botanique/Lophostemon_confertus/Lophostemon_confertus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Lophostemon confertus est un arbre à feuillage permanent de la famille des Myrtacées familier à bon nombre de personnes vivant le long de la côte est de l'Australie. Très souvent, il a été planté comme arbre en bordure de rue, un rôle pour lequel il n'est pas être bien adapté car il se développe jusqu'à 30 mètres de hauteur et, bien souvent, vient s'enchevêtrer dans les lignes électriques aériennes. Il a un feuillage dense et donc offre plus d'ombre que les eucalyptus. Il est aussi utilisé pour remplacer l'envahissant camphrier (Cinnamomum camphora), bien qu'il ait lui-même tendance à faire de même.
 Il était connu auparavant sous le nom de Tristania conferta et on peut le trouver dans de vieux livres de plantes sous ce nom.
